--- a/Photo Log.xlsx
+++ b/Photo Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Gottwald_Lab\Leigh Sitler\Strawberries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luckymehra\Google Drive\USDA HRL\Projects\Wind tunnel\ALS_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="396">
   <si>
-    <t>Photo #</t>
-  </si>
-  <si>
     <t>Leaf</t>
   </si>
   <si>
@@ -1212,6 +1209,9 @@
   </si>
   <si>
     <t>Beginning of Trap Plants, Trial 1</t>
+  </si>
+  <si>
+    <t>Photo_number</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,13 +1586,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>2361</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>2365</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>2369</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>2372</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>2375</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>2378</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>2381</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>2385</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>2388</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>2391</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>2394</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>2397</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>2400</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>2403</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>2406</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>2409</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>2413</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>2416</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>2419</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>2422</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>2425</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>2428</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>2432</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>2435</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>2438</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -2397,7 +2397,7 @@
         <v>2441</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>2445</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>2448</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>2451</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>2454</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>2457</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>2460</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>2463</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
@@ -2646,7 +2646,7 @@
         <v>2466</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         <v>2469</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>2472</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>2475</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>2478</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>2481</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>2485</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>2488</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C129" s="4">
         <v>1</v>
@@ -2895,7 +2895,7 @@
         <v>2491</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C132" s="4">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>2494</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>2497</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C138" s="4">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>2500</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>2503</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C144" s="4">
         <v>1</v>
@@ -3045,7 +3045,7 @@
         <v>2506</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
@@ -3075,7 +3075,7 @@
         <v>2509</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>2512</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -3135,13 +3135,13 @@
         <v>2515</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>2518</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
@@ -3197,7 +3197,7 @@
         <v>2521</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>2524</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>2528</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C169" s="4">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>2531</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>2534</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C175" s="4">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>2537</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>2540</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>2543</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C184" s="4">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>2546</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C187" s="4">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>2549</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C190" s="4">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>2552</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C193" s="4">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>2555</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C196" s="4">
         <v>1</v>
@@ -3575,7 +3575,7 @@
         <v>2559</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C200" s="4">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>2562</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C203" s="4">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>2565</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206" s="4">
         <v>1</v>
@@ -3683,7 +3683,7 @@
         <v>2570</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C211" s="4">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>2573</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C214" s="4">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>2576</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>2579</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>2582</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" s="4">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>2585</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C226" s="4">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>2588</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C229" s="4">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>2591</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C232" s="4">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>2594</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C235" s="4">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>2597</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C238" s="4">
         <v>1</v>
@@ -3983,7 +3983,7 @@
         <v>2600</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C241" s="4">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>2604</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C245" s="4">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>2607</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C248" s="4">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>2611</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>2614</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>2617</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C258" s="4">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>2620</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
@@ -4211,7 +4211,7 @@
         <v>2623</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>2626</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C267" s="4">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>2629</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C270" s="4">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>2632</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C273" s="4">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>2636</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C277" s="4">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>2639</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C280" s="4">
         <v>1</v>
@@ -4400,7 +4400,7 @@
         <v>2642</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C283" s="4">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>2645</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C286" s="4">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>2648</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C289" s="4">
         <v>1</v>
@@ -4490,7 +4490,7 @@
         <v>2651</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="4">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>2654</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C295" s="4">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>2657</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C298" s="4">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>2660</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C301" s="4">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>2663</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C304" s="4">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>2666</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C307" s="4">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>2669</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C310" s="4">
         <v>1</v>
@@ -4700,7 +4700,7 @@
         <v>2672</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C313" s="4">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>2675</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C316" s="4">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>2678</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C319" s="4">
         <v>1</v>
@@ -4790,7 +4790,7 @@
         <v>2681</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C322" s="4">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>2684</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C325" s="4">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>2688</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C329" s="4">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>2691</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C332" s="4">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>2694</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C335" s="4">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>2697</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C338" s="4">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>2700</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C341" s="4">
         <v>1</v>
@@ -5009,7 +5009,7 @@
         <v>2703</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C344" s="4">
         <v>1</v>
@@ -5039,7 +5039,7 @@
         <v>2706</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C347" s="4">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>2709</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C350" s="4">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>2712</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C353" s="4">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>2716</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C357" s="4">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>2719</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C360" s="4">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>2722</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C363" s="4">
         <v>1</v>
@@ -5230,7 +5230,7 @@
         <v>2725</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C366" s="4">
         <v>1</v>
@@ -5260,7 +5260,7 @@
         <v>2728</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C369" s="4">
         <v>1</v>
@@ -5290,7 +5290,7 @@
         <v>2731</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C372" s="4">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>2734</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C375" s="4">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>2737</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C378" s="4">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>2740</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C381" s="4">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>2743</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C384" s="4">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>2746</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C387" s="4">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>2749</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C390" s="4">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>2752</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C393" s="4">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>2755</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C396" s="4">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         <v>2758</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C399" s="4">
         <v>1</v>
@@ -5590,7 +5590,7 @@
         <v>2761</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C402" s="4">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>2764</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C405" s="4">
         <v>1</v>
@@ -5650,7 +5650,7 @@
         <v>2767</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C408" s="4">
         <v>1</v>
@@ -5680,7 +5680,7 @@
         <v>2770</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C411" s="4">
         <v>1</v>
@@ -5710,13 +5710,13 @@
         <v>2773</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C414" s="4">
         <v>1</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,7 +5742,7 @@
         <v>2776</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C417" s="4">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>2779</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C420" s="4">
         <v>1</v>
@@ -5802,7 +5802,7 @@
         <v>2782</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C423" s="4">
         <v>1</v>
@@ -5832,7 +5832,7 @@
         <v>2785</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C426" s="4">
         <v>1</v>
@@ -5862,7 +5862,7 @@
         <v>2788</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C429" s="4">
         <v>1</v>
@@ -5892,7 +5892,7 @@
         <v>2791</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C432" s="4">
         <v>1</v>
@@ -5922,7 +5922,7 @@
         <v>2794</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C435" s="4">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>2797</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C438" s="4">
         <v>1</v>
@@ -5982,7 +5982,7 @@
         <v>2800</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C441" s="4">
         <v>1</v>
@@ -6012,7 +6012,7 @@
         <v>2803</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C444" s="4">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>2806</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C447" s="4">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>2809</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C450" s="4">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>2812</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C453" s="4">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>2815</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C456" s="4">
         <v>1</v>
@@ -6162,7 +6162,7 @@
         <v>2818</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C459" s="4">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>2821</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C462" s="4">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>2824</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C465" s="4">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>2827</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C468" s="4">
         <v>1</v>
@@ -6282,7 +6282,7 @@
         <v>2830</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C471" s="4">
         <v>1</v>
@@ -6312,7 +6312,7 @@
         <v>2833</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C474" s="4">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>2836</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C477" s="4">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>2839</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C480" s="4">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>2842</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C483" s="4">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>2846</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C487" s="4">
         <v>1</v>
@@ -6471,7 +6471,7 @@
         <v>2849</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C490" s="4">
         <v>1</v>
@@ -6501,7 +6501,7 @@
         <v>2852</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C493" s="4">
         <v>1</v>
@@ -6531,7 +6531,7 @@
         <v>2855</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C496" s="4">
         <v>1</v>
@@ -6561,7 +6561,7 @@
         <v>2858</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C499" s="4">
         <v>1</v>
@@ -6591,7 +6591,7 @@
         <v>2861</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C502" s="4">
         <v>1</v>
@@ -6615,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>2864</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C505" s="4">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>2867</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C508" s="4">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>2870</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C511" s="4">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>2873</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C514" s="4">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>2876</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C517" s="4">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>2879</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C520" s="4">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>2882</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C523" s="4">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>2885</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C526" s="4">
         <v>1</v>
@@ -6863,7 +6863,7 @@
         <v>2888</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C529" s="4">
         <v>1</v>
@@ -6893,7 +6893,7 @@
         <v>2891</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C532" s="4">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>2894</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C535" s="4">
         <v>1</v>
@@ -6953,7 +6953,7 @@
         <v>2897</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C538" s="4">
         <v>1</v>
@@ -6983,7 +6983,7 @@
         <v>2900</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C541" s="4">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>2903</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C544" s="4">
         <v>1</v>
@@ -7043,7 +7043,7 @@
         <v>2906</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C547" s="4">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>2909</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C550" s="4">
         <v>1</v>
@@ -7103,7 +7103,7 @@
         <v>2912</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C553" s="4">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>2915</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C556" s="4">
         <v>1</v>
@@ -7163,7 +7163,7 @@
         <v>2918</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C559" s="4">
         <v>1</v>
@@ -7190,7 +7190,7 @@
         <v>2921</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C562" s="4">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>2924</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C565" s="4">
         <v>1</v>
@@ -7244,7 +7244,7 @@
         <v>2927</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C568" s="4">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>2930</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C571" s="4">
         <v>1</v>
@@ -7298,7 +7298,7 @@
         <v>2933</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C574" s="4">
         <v>1</v>
@@ -7325,7 +7325,7 @@
         <v>2936</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C577" s="4">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>2939</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C580" s="4">
         <v>1</v>
@@ -7379,7 +7379,7 @@
         <v>2942</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C583" s="4">
         <v>1</v>
@@ -7406,7 +7406,7 @@
         <v>2945</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C586" s="4">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>2948</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C589" s="4">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>2951</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C592" s="4">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>2954</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C595" s="4">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>2957</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C598" s="4">
         <v>1</v>
@@ -7541,7 +7541,7 @@
         <v>2960</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C601" s="4">
         <v>1</v>
@@ -7568,7 +7568,7 @@
         <v>2963</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C604" s="4">
         <v>1</v>
@@ -7595,7 +7595,7 @@
         <v>2966</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C607" s="4">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>2969</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C610" s="4">
         <v>1</v>
@@ -7649,7 +7649,7 @@
         <v>2972</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C613" s="4">
         <v>1</v>
@@ -7676,7 +7676,7 @@
         <v>2975</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C616" s="4">
         <v>1</v>
@@ -7703,7 +7703,7 @@
         <v>2978</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C619" s="4">
         <v>1</v>
@@ -7730,7 +7730,7 @@
         <v>2981</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C622" s="4">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>2984</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C625" s="4">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>2987</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C628" s="4">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>2990</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C631" s="4">
         <v>1</v>
@@ -7838,7 +7838,7 @@
         <v>2993</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C634" s="4">
         <v>1</v>
@@ -7865,7 +7865,7 @@
         <v>2996</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C637" s="4">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>2999</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C640" s="4">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>3002</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C643" s="4">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>3005</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C646" s="4">
         <v>1</v>
@@ -7973,7 +7973,7 @@
         <v>3008</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C649" s="4">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>3011</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C652" s="4">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>3014</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C655" s="4">
         <v>1</v>
@@ -8054,7 +8054,7 @@
         <v>3017</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C658" s="4">
         <v>1</v>
@@ -8070,16 +8070,16 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C660" s="4">
         <v>3</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>3019</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C661" s="4">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>3022</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C664" s="4">
         <v>1</v>
@@ -8130,16 +8130,16 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C666" s="4">
         <v>3</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,7 +8147,7 @@
         <v>3024</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C667" s="4">
         <v>1</v>
@@ -8174,7 +8174,7 @@
         <v>3027</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C670" s="4">
         <v>1</v>
@@ -8201,7 +8201,7 @@
         <v>3030</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C673" s="4">
         <v>1</v>
@@ -8228,7 +8228,7 @@
         <v>3033</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C676" s="4">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>3036</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C679" s="4">
         <v>1</v>
@@ -8282,7 +8282,7 @@
         <v>3039</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C682" s="4">
         <v>1</v>
@@ -8317,7 +8317,7 @@
         <v>3043</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C686" s="4">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>3046</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C689" s="4">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>3049</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C692" s="4">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>3052</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C695" s="4">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>3055</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C698" s="4">
         <v>1</v>
@@ -8452,7 +8452,7 @@
         <v>3058</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C701" s="4">
         <v>1</v>
@@ -8479,7 +8479,7 @@
         <v>3061</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C704" s="4">
         <v>1</v>
@@ -8506,7 +8506,7 @@
         <v>3064</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C707" s="4">
         <v>1</v>
@@ -8533,7 +8533,7 @@
         <v>3067</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C710" s="4">
         <v>1</v>
@@ -8560,7 +8560,7 @@
         <v>3070</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C713" s="4">
         <v>1</v>
@@ -8587,7 +8587,7 @@
         <v>3073</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C716" s="4">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>3076</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C719" s="4">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>3079</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C722" s="4">
         <v>1</v>
@@ -8668,7 +8668,7 @@
         <v>3082</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C725" s="4">
         <v>1</v>
@@ -8695,7 +8695,7 @@
         <v>3085</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C728" s="4">
         <v>1</v>
@@ -8722,7 +8722,7 @@
         <v>3088</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C731" s="4">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>3091</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C734" s="4">
         <v>1</v>
@@ -8776,7 +8776,7 @@
         <v>3094</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C737" s="4">
         <v>1</v>
@@ -8803,7 +8803,7 @@
         <v>3097</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C740" s="4">
         <v>1</v>
@@ -8819,16 +8819,16 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C742" s="4">
         <v>3</v>
       </c>
       <c r="D742" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,7 +8836,7 @@
         <v>3099</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C743" s="4">
         <v>1</v>
@@ -8863,7 +8863,7 @@
         <v>3102</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C746" s="4">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>3105</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C749" s="4">
         <v>1</v>
@@ -8906,16 +8906,16 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C751" s="4">
         <v>3</v>
       </c>
       <c r="D751" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
@@ -8923,7 +8923,7 @@
         <v>3107</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C752" s="4">
         <v>1</v>
@@ -8950,7 +8950,7 @@
         <v>3110</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C755" s="4">
         <v>1</v>
@@ -8977,7 +8977,7 @@
         <v>3113</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C758" s="4">
         <v>1</v>
@@ -9004,7 +9004,7 @@
         <v>3116</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C761" s="4">
         <v>1</v>
@@ -9031,7 +9031,7 @@
         <v>3119</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C764" s="4">
         <v>1</v>
@@ -9066,7 +9066,7 @@
         <v>3123</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C768" s="4">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>3126</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C771" s="4">
         <v>1</v>
@@ -9120,7 +9120,7 @@
         <v>3129</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C774" s="4">
         <v>1</v>
@@ -9147,7 +9147,7 @@
         <v>3132</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C777" s="4">
         <v>1</v>
@@ -9174,7 +9174,7 @@
         <v>3135</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C780" s="4">
         <v>1</v>
@@ -9201,7 +9201,7 @@
         <v>3138</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C783" s="4">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>3141</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C786" s="4">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>3144</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C789" s="4">
         <v>1</v>
@@ -9282,7 +9282,7 @@
         <v>3147</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C792" s="4">
         <v>1</v>
@@ -9309,7 +9309,7 @@
         <v>3150</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C795" s="4">
         <v>1</v>
@@ -9336,7 +9336,7 @@
         <v>3153</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C798" s="4">
         <v>1</v>
@@ -9363,7 +9363,7 @@
         <v>3156</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C801" s="4">
         <v>1</v>
@@ -9390,7 +9390,7 @@
         <v>3159</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C804" s="4">
         <v>1</v>
@@ -9417,7 +9417,7 @@
         <v>3162</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C807" s="4">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>3165</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C810" s="4">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>3168</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C813" s="4">
         <v>1</v>
@@ -9498,7 +9498,7 @@
         <v>3171</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C816" s="4">
         <v>1</v>
@@ -9525,7 +9525,7 @@
         <v>3174</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C819" s="4">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         <v>3177</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C822" s="4">
         <v>1</v>
@@ -9579,7 +9579,7 @@
         <v>3180</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C825" s="4">
         <v>1</v>
@@ -9606,7 +9606,7 @@
         <v>3183</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C828" s="4">
         <v>1</v>
@@ -9633,7 +9633,7 @@
         <v>3186</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C831" s="4">
         <v>1</v>
@@ -9660,7 +9660,7 @@
         <v>3189</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C834" s="4">
         <v>1</v>
@@ -9687,7 +9687,7 @@
         <v>3192</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C837" s="4">
         <v>1</v>
@@ -9714,7 +9714,7 @@
         <v>3195</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C840" s="4">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>3198</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C843" s="4">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>3201</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C846" s="4">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>3204</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C849" s="4">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>3207</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C852" s="4">
         <v>1</v>
@@ -9849,7 +9849,7 @@
         <v>3210</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C855" s="4">
         <v>1</v>
@@ -9876,7 +9876,7 @@
         <v>3213</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C858" s="4">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>3214</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C859" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
@@ -9914,7 +9914,7 @@
         <v>3217</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C862" s="4">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         <v>3220</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C865" s="4">
         <v>1</v>
@@ -9968,7 +9968,7 @@
         <v>3223</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C868" s="4">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>3226</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C871" s="4">
         <v>1</v>
@@ -10022,7 +10022,7 @@
         <v>3229</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C874" s="4">
         <v>1</v>
@@ -10049,7 +10049,7 @@
         <v>3232</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C877" s="4">
         <v>1</v>
@@ -10076,7 +10076,7 @@
         <v>3235</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C880" s="4">
         <v>1</v>
@@ -10103,10 +10103,10 @@
         <v>3238</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C883" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
@@ -10114,7 +10114,7 @@
         <v>3239</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C884" s="4">
         <v>1</v>
@@ -10141,7 +10141,7 @@
         <v>3242</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C887" s="4">
         <v>1</v>
@@ -10168,7 +10168,7 @@
         <v>3245</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C890" s="4">
         <v>1</v>
@@ -10195,7 +10195,7 @@
         <v>3248</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C893" s="4">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>3251</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C896" s="4">
         <v>1</v>
@@ -10249,7 +10249,7 @@
         <v>3254</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C899" s="4">
         <v>1</v>
@@ -10276,7 +10276,7 @@
         <v>3257</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C902" s="4">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>3260</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C905" s="4">
         <v>1</v>
@@ -10330,7 +10330,7 @@
         <v>3263</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C908" s="4">
         <v>1</v>
@@ -10357,7 +10357,7 @@
         <v>3266</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C911" s="4">
         <v>1</v>
@@ -10384,7 +10384,7 @@
         <v>3269</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C914" s="4">
         <v>1</v>
@@ -10411,7 +10411,7 @@
         <v>3272</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C917" s="4">
         <v>1</v>
@@ -10438,7 +10438,7 @@
         <v>3275</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C920" s="4">
         <v>1</v>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="D922" s="1"/>
       <c r="E922" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -10470,7 +10470,7 @@
         <v>3322</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C923" s="4">
         <v>1</v>
@@ -10505,7 +10505,7 @@
         <v>3326</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C927" s="4">
         <v>1</v>
@@ -10532,7 +10532,7 @@
         <v>3329</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C930" s="4">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>3334</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C935" s="4">
         <v>1</v>
@@ -10610,7 +10610,7 @@
         <v>3338</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C939" s="4">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>3341</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C942" s="4">
         <v>1</v>
@@ -10664,7 +10664,7 @@
         <v>3344</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C945" s="4">
         <v>1</v>
@@ -10691,7 +10691,7 @@
         <v>3347</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C948" s="4">
         <v>1</v>
@@ -10718,13 +10718,13 @@
         <v>3350</v>
       </c>
       <c r="B951" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C951" s="4">
+        <v>1</v>
+      </c>
+      <c r="D951" t="s">
         <v>155</v>
-      </c>
-      <c r="C951" s="4">
-        <v>1</v>
-      </c>
-      <c r="D951" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
@@ -10756,7 +10756,7 @@
         <v>3354</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C955" s="4">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>3357</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C958" s="4">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>3360</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C961" s="4">
         <v>1</v>
@@ -10837,7 +10837,7 @@
         <v>3363</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C964" s="4">
         <v>1</v>
@@ -10864,13 +10864,13 @@
         <v>3366</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C967" s="4">
         <v>1</v>
       </c>
       <c r="D967" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
@@ -10902,7 +10902,7 @@
         <v>3370</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C971" s="4">
         <v>1</v>
@@ -10929,7 +10929,7 @@
         <v>3373</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C974" s="4">
         <v>1</v>
@@ -10956,7 +10956,7 @@
         <v>3376</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C977" s="4">
         <v>1</v>
@@ -10983,7 +10983,7 @@
         <v>3379</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C980" s="4">
         <v>1</v>
@@ -11010,7 +11010,7 @@
         <v>3382</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C983" s="4">
         <v>1</v>
@@ -11037,7 +11037,7 @@
         <v>3385</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C986" s="4">
         <v>1</v>
@@ -11064,7 +11064,7 @@
         <v>3388</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C989" s="4">
         <v>1</v>
@@ -11091,13 +11091,13 @@
         <v>3391</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C992" s="4">
         <v>1</v>
       </c>
       <c r="D992" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.25">
@@ -11108,7 +11108,7 @@
         <v>2</v>
       </c>
       <c r="D993" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
@@ -11140,13 +11140,13 @@
         <v>3396</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C997" s="4">
         <v>1</v>
       </c>
       <c r="D997" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
@@ -11178,13 +11178,13 @@
         <v>3400</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1001" s="4">
         <v>1</v>
       </c>
       <c r="D1001" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
@@ -11195,7 +11195,7 @@
         <v>2</v>
       </c>
       <c r="D1002" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
@@ -11219,13 +11219,13 @@
         <v>3404</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1005" s="4">
         <v>1</v>
       </c>
       <c r="D1005" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
@@ -11257,13 +11257,13 @@
         <v>3408</v>
       </c>
       <c r="B1009" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1009" s="4">
         <v>1</v>
       </c>
       <c r="D1009" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="D1010" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
@@ -11314,13 +11314,13 @@
         <v>3414</v>
       </c>
       <c r="B1015" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1015" s="4">
         <v>1</v>
       </c>
       <c r="D1015" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
@@ -11331,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="D1016" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
@@ -11342,7 +11342,7 @@
         <v>3</v>
       </c>
       <c r="D1017" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
@@ -11366,13 +11366,13 @@
         <v>3419</v>
       </c>
       <c r="B1020" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1020" s="4">
         <v>1</v>
       </c>
       <c r="D1020" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
@@ -11404,7 +11404,7 @@
         <v>3423</v>
       </c>
       <c r="B1024" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1024" s="4">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>3426</v>
       </c>
       <c r="B1027" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1027" s="4">
         <v>1</v>
@@ -11458,7 +11458,7 @@
         <v>3429</v>
       </c>
       <c r="B1030" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1030" s="4">
         <v>1</v>
@@ -11485,7 +11485,7 @@
         <v>3432</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1033" s="4">
         <v>1</v>
@@ -11512,13 +11512,13 @@
         <v>3435</v>
       </c>
       <c r="B1036" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1036" s="4">
         <v>1</v>
       </c>
       <c r="D1036" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
@@ -11550,7 +11550,7 @@
         <v>3439</v>
       </c>
       <c r="B1040" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1040" s="4">
         <v>1</v>
@@ -11577,13 +11577,13 @@
         <v>3442</v>
       </c>
       <c r="B1043" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1043" s="4">
         <v>1</v>
       </c>
       <c r="D1043" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
@@ -11615,7 +11615,7 @@
         <v>3446</v>
       </c>
       <c r="B1047" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1047" s="4">
         <v>1</v>
@@ -11642,13 +11642,13 @@
         <v>3449</v>
       </c>
       <c r="B1050" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1050" s="4">
         <v>1</v>
       </c>
       <c r="D1050" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="D1051" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
@@ -11691,13 +11691,13 @@
         <v>3454</v>
       </c>
       <c r="B1055" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1055" s="4">
         <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="D1056" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
@@ -11719,7 +11719,7 @@
         <v>2</v>
       </c>
       <c r="D1057" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
@@ -11730,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="D1058" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
@@ -11754,13 +11754,13 @@
         <v>3460</v>
       </c>
       <c r="B1061" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1061" s="4">
         <v>1</v>
       </c>
       <c r="D1061" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="D1062" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
@@ -11782,7 +11782,7 @@
         <v>3</v>
       </c>
       <c r="D1063" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
@@ -11814,13 +11814,13 @@
         <v>3466</v>
       </c>
       <c r="B1067" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1067" s="4">
         <v>1</v>
       </c>
       <c r="D1067" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
@@ -11852,13 +11852,13 @@
         <v>3470</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1071" s="4">
         <v>1</v>
       </c>
       <c r="D1071" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>3474</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1075" s="4">
         <v>1</v>
@@ -11917,7 +11917,7 @@
         <v>3477</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1078" s="4">
         <v>1</v>
@@ -11944,7 +11944,7 @@
         <v>3480</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1081" s="4">
         <v>1</v>
@@ -11971,7 +11971,7 @@
         <v>3483</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1084" s="4">
         <v>1</v>
@@ -11998,7 +11998,7 @@
         <v>3486</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1087" s="4">
         <v>1</v>
@@ -12025,7 +12025,7 @@
         <v>3489</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1090" s="4">
         <v>1</v>
@@ -12052,7 +12052,7 @@
         <v>3492</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1093" s="4">
         <v>1</v>
@@ -12079,13 +12079,13 @@
         <v>3495</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1096" s="4">
         <v>1</v>
       </c>
       <c r="D1096" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
@@ -12117,13 +12117,13 @@
         <v>3499</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1100" s="4">
         <v>1</v>
       </c>
       <c r="D1100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
@@ -12134,7 +12134,7 @@
         <v>2</v>
       </c>
       <c r="D1101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
@@ -12166,7 +12166,7 @@
         <v>3504</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1105" s="4">
         <v>1</v>
@@ -12193,13 +12193,13 @@
         <v>3507</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1108" s="4">
         <v>1</v>
       </c>
       <c r="D1108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
@@ -12231,13 +12231,13 @@
         <v>3511</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1112" s="4">
         <v>1</v>
       </c>
       <c r="D1112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>3515</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1116" s="4">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>3518</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1119" s="4">
         <v>1</v>
@@ -12323,13 +12323,13 @@
         <v>3521</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1122" s="4">
         <v>1</v>
       </c>
       <c r="D1122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
@@ -12340,7 +12340,7 @@
         <v>2</v>
       </c>
       <c r="D1123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
@@ -12351,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="D1124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
@@ -12383,13 +12383,13 @@
         <v>3527</v>
       </c>
       <c r="B1128" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1128" s="4">
         <v>1</v>
       </c>
       <c r="D1128" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="D1129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
@@ -12411,7 +12411,7 @@
         <v>3</v>
       </c>
       <c r="D1130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
@@ -12435,7 +12435,7 @@
         <v>3532</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1133" s="4">
         <v>1</v>
@@ -12462,7 +12462,7 @@
         <v>3535</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1136" s="4">
         <v>1</v>
@@ -12489,13 +12489,13 @@
         <v>3538</v>
       </c>
       <c r="B1139" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1139" s="4">
         <v>1</v>
       </c>
       <c r="D1139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
@@ -12527,7 +12527,7 @@
         <v>3542</v>
       </c>
       <c r="B1143" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1143" s="4">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>3545</v>
       </c>
       <c r="B1146" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1146" s="4">
         <v>1</v>
@@ -12581,13 +12581,13 @@
         <v>3548</v>
       </c>
       <c r="B1149" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1149" s="4">
         <v>1</v>
       </c>
       <c r="D1149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
         <v>2</v>
       </c>
       <c r="D1150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
         <v>3553</v>
       </c>
       <c r="B1154" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1154" s="4">
         <v>1</v>
@@ -12657,13 +12657,13 @@
         <v>3556</v>
       </c>
       <c r="B1157" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1157" s="4">
         <v>1</v>
       </c>
       <c r="D1157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>3560</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1161" s="4">
         <v>1</v>
@@ -12722,13 +12722,13 @@
         <v>3563</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1164" s="4">
         <v>1</v>
       </c>
       <c r="D1164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
@@ -12760,13 +12760,13 @@
         <v>3567</v>
       </c>
       <c r="B1168" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1168" s="4">
         <v>1</v>
       </c>
       <c r="D1168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
@@ -12798,7 +12798,7 @@
         <v>3571</v>
       </c>
       <c r="B1172" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1172" s="4">
         <v>1</v>
@@ -12825,7 +12825,7 @@
         <v>3574</v>
       </c>
       <c r="B1175" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1175" s="4">
         <v>1</v>
@@ -12852,7 +12852,7 @@
         <v>3577</v>
       </c>
       <c r="B1178" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1178" s="4">
         <v>1</v>
@@ -12879,13 +12879,13 @@
         <v>3580</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1181" s="4">
         <v>1</v>
       </c>
       <c r="D1181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,7 +12917,7 @@
         <v>3584</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1185" s="4">
         <v>1</v>
@@ -12944,7 +12944,7 @@
         <v>3587</v>
       </c>
       <c r="B1188" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1188" s="4">
         <v>1</v>
@@ -12971,7 +12971,7 @@
         <v>3590</v>
       </c>
       <c r="B1191" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1191" s="4">
         <v>1</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="D1193" s="1"/>
       <c r="E1193" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
@@ -13003,7 +13003,7 @@
         <v>3593</v>
       </c>
       <c r="B1194" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1194" s="4">
         <v>1</v>
@@ -13014,10 +13014,10 @@
         <v>3594</v>
       </c>
       <c r="B1195" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1195" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
@@ -13025,10 +13025,10 @@
         <v>3595</v>
       </c>
       <c r="B1196" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1196" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
@@ -13052,7 +13052,7 @@
         <v>3598</v>
       </c>
       <c r="B1199" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1199" s="4">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>3601</v>
       </c>
       <c r="B1202" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1202" s="4">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>3604</v>
       </c>
       <c r="B1205" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1205" s="4">
         <v>1</v>
@@ -13133,7 +13133,7 @@
         <v>3607</v>
       </c>
       <c r="B1208" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1208" s="4">
         <v>1</v>
@@ -13160,7 +13160,7 @@
         <v>3610</v>
       </c>
       <c r="B1211" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1211" s="4">
         <v>1</v>
@@ -13187,7 +13187,7 @@
         <v>3613</v>
       </c>
       <c r="B1214" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1214" s="4">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>3616</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1217" s="4">
         <v>1</v>
@@ -13241,7 +13241,7 @@
         <v>3619</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1220" s="4">
         <v>1</v>
@@ -13268,7 +13268,7 @@
         <v>3622</v>
       </c>
       <c r="B1223" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1223" s="4">
         <v>1</v>
@@ -13295,7 +13295,7 @@
         <v>3625</v>
       </c>
       <c r="B1226" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1226" s="4">
         <v>1</v>
@@ -13322,7 +13322,7 @@
         <v>3628</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1229" s="4">
         <v>1</v>
@@ -13349,7 +13349,7 @@
         <v>3631</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1232" s="4">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>3634</v>
       </c>
       <c r="B1235" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1235" s="4">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>3637</v>
       </c>
       <c r="B1238" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1238" s="4">
         <v>1</v>
@@ -13430,7 +13430,7 @@
         <v>3640</v>
       </c>
       <c r="B1241" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1241" s="4">
         <v>1</v>
@@ -13457,7 +13457,7 @@
         <v>3643</v>
       </c>
       <c r="B1244" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1244" s="4">
         <v>1</v>
@@ -13484,7 +13484,7 @@
         <v>3646</v>
       </c>
       <c r="B1247" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1247" s="4">
         <v>1</v>
@@ -13511,7 +13511,7 @@
         <v>3649</v>
       </c>
       <c r="B1250" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1250" s="4">
         <v>1</v>
@@ -13538,7 +13538,7 @@
         <v>3652</v>
       </c>
       <c r="B1253" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1253" s="4">
         <v>1</v>
@@ -13565,7 +13565,7 @@
         <v>3655</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1256" s="4">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>3658</v>
       </c>
       <c r="B1259" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1259" s="4">
         <v>1</v>
@@ -13619,7 +13619,7 @@
         <v>3661</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1262" s="4">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>3664</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1265" s="4">
         <v>1</v>
@@ -13673,7 +13673,7 @@
         <v>3667</v>
       </c>
       <c r="B1268" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1268" s="4">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>3670</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1271" s="4">
         <v>1</v>
@@ -13727,7 +13727,7 @@
         <v>3673</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1274" s="4">
         <v>1</v>
@@ -13754,7 +13754,7 @@
         <v>3676</v>
       </c>
       <c r="B1277" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1277" s="4">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>3679</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1280" s="4">
         <v>1</v>
@@ -13808,7 +13808,7 @@
         <v>3682</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1283" s="4">
         <v>1</v>
@@ -13835,7 +13835,7 @@
         <v>3685</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1286" s="4">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>3688</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1289" s="4">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>3691</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1292" s="4">
         <v>1</v>
@@ -13916,7 +13916,7 @@
         <v>3694</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1295" s="4">
         <v>1</v>
@@ -13943,7 +13943,7 @@
         <v>3697</v>
       </c>
       <c r="B1298" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1298" s="4">
         <v>1</v>
@@ -13970,7 +13970,7 @@
         <v>3700</v>
       </c>
       <c r="B1301" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1301" s="4">
         <v>1</v>
@@ -13997,7 +13997,7 @@
         <v>3703</v>
       </c>
       <c r="B1304" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1304" s="4">
         <v>1</v>
@@ -14024,7 +14024,7 @@
         <v>3706</v>
       </c>
       <c r="B1307" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1307" s="4">
         <v>1</v>
@@ -14051,7 +14051,7 @@
         <v>3709</v>
       </c>
       <c r="B1310" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1310" s="4">
         <v>1</v>
@@ -14065,7 +14065,7 @@
         <v>2</v>
       </c>
       <c r="D1311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
@@ -14081,7 +14081,7 @@
         <v>3712</v>
       </c>
       <c r="B1313" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1313" s="4">
         <v>1</v>
@@ -14108,7 +14108,7 @@
         <v>3715</v>
       </c>
       <c r="B1316" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1316" s="4">
         <v>1</v>
@@ -14135,7 +14135,7 @@
         <v>3718</v>
       </c>
       <c r="B1319" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1319" s="4">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>3721</v>
       </c>
       <c r="B1322" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1322" s="4">
         <v>1</v>
@@ -14189,7 +14189,7 @@
         <v>3724</v>
       </c>
       <c r="B1325" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1325" s="4">
         <v>1</v>
@@ -14216,7 +14216,7 @@
         <v>3727</v>
       </c>
       <c r="B1328" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1328" s="4">
         <v>1</v>
@@ -14243,7 +14243,7 @@
         <v>3730</v>
       </c>
       <c r="B1331" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1331" s="4">
         <v>1</v>
@@ -14270,7 +14270,7 @@
         <v>3733</v>
       </c>
       <c r="B1334" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1334" s="4">
         <v>1</v>
@@ -14297,7 +14297,7 @@
         <v>3736</v>
       </c>
       <c r="B1337" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1337" s="4">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>3738</v>
       </c>
       <c r="B1339" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1339" s="4">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>3741</v>
       </c>
       <c r="B1342" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1342" s="4">
         <v>1</v>
@@ -14370,7 +14370,7 @@
         <v>3744</v>
       </c>
       <c r="B1345" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1345" s="4">
         <v>1</v>
@@ -14397,7 +14397,7 @@
         <v>3747</v>
       </c>
       <c r="B1348" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1348" s="4">
         <v>1</v>
@@ -14424,7 +14424,7 @@
         <v>3750</v>
       </c>
       <c r="B1351" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1351" s="4">
         <v>1</v>
@@ -14451,7 +14451,7 @@
         <v>3753</v>
       </c>
       <c r="B1354" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1354" s="4">
         <v>1</v>
@@ -14478,7 +14478,7 @@
         <v>3756</v>
       </c>
       <c r="B1357" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1357" s="4">
         <v>1</v>
@@ -14505,7 +14505,7 @@
         <v>3759</v>
       </c>
       <c r="B1360" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1360" s="4">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>3762</v>
       </c>
       <c r="B1363" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1363" s="4">
         <v>1</v>
@@ -14559,7 +14559,7 @@
         <v>3765</v>
       </c>
       <c r="B1366" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1366" s="4">
         <v>1</v>
@@ -14586,7 +14586,7 @@
         <v>3768</v>
       </c>
       <c r="B1369" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1369" s="4">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>3771</v>
       </c>
       <c r="B1372" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1372" s="4">
         <v>1</v>
@@ -14640,7 +14640,7 @@
         <v>3774</v>
       </c>
       <c r="B1375" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1375" s="4">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>3777</v>
       </c>
       <c r="B1378" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1378" s="4">
         <v>1</v>
@@ -14694,7 +14694,7 @@
         <v>3780</v>
       </c>
       <c r="B1381" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1381" s="4">
         <v>1</v>
@@ -14721,7 +14721,7 @@
         <v>3783</v>
       </c>
       <c r="B1384" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1384" s="4">
         <v>1</v>
@@ -14748,7 +14748,7 @@
         <v>3786</v>
       </c>
       <c r="B1387" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1387" s="4">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>3789</v>
       </c>
       <c r="B1390" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1390" s="4">
         <v>1</v>
@@ -14802,7 +14802,7 @@
         <v>3792</v>
       </c>
       <c r="B1393" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1393" s="4">
         <v>1</v>
@@ -14829,7 +14829,7 @@
         <v>3795</v>
       </c>
       <c r="B1396" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1396" s="4">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>3798</v>
       </c>
       <c r="B1399" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1399" s="4">
         <v>1</v>
@@ -14883,7 +14883,7 @@
         <v>3801</v>
       </c>
       <c r="B1402" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1402" s="4">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>3804</v>
       </c>
       <c r="B1405" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1405" s="4">
         <v>1</v>
@@ -14937,7 +14937,7 @@
         <v>3807</v>
       </c>
       <c r="B1408" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1408" s="4">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>3810</v>
       </c>
       <c r="B1411" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1411" s="4">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>3813</v>
       </c>
       <c r="B1414" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1414" s="4">
         <v>1</v>
@@ -15018,7 +15018,7 @@
         <v>3816</v>
       </c>
       <c r="B1417" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1417" s="4">
         <v>1</v>
@@ -15045,7 +15045,7 @@
         <v>3819</v>
       </c>
       <c r="B1420" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1420" s="4">
         <v>1</v>
@@ -15072,7 +15072,7 @@
         <v>3822</v>
       </c>
       <c r="B1423" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1423" s="4">
         <v>1</v>
@@ -15099,7 +15099,7 @@
         <v>3825</v>
       </c>
       <c r="B1426" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1426" s="4">
         <v>1</v>
@@ -15126,7 +15126,7 @@
         <v>3828</v>
       </c>
       <c r="B1429" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1429" s="4">
         <v>1</v>
@@ -15153,7 +15153,7 @@
         <v>3831</v>
       </c>
       <c r="B1432" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1432" s="4">
         <v>1</v>
@@ -15180,7 +15180,7 @@
         <v>3834</v>
       </c>
       <c r="B1435" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1435" s="4">
         <v>1</v>
@@ -15207,7 +15207,7 @@
         <v>3837</v>
       </c>
       <c r="B1438" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1438" s="4">
         <v>1</v>
@@ -15234,7 +15234,7 @@
         <v>3840</v>
       </c>
       <c r="B1441" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1441" s="4">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         <v>3843</v>
       </c>
       <c r="B1444" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1444" s="4">
         <v>1</v>
@@ -15288,7 +15288,7 @@
         <v>3846</v>
       </c>
       <c r="B1447" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1447" s="4">
         <v>1</v>
@@ -15307,10 +15307,10 @@
         <v>3848</v>
       </c>
       <c r="C1449" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1449" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
@@ -15318,7 +15318,7 @@
         <v>3849</v>
       </c>
       <c r="B1450" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1450" s="4">
         <v>1</v>
@@ -15345,7 +15345,7 @@
         <v>3852</v>
       </c>
       <c r="B1453" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1453" s="4">
         <v>1</v>
@@ -15372,7 +15372,7 @@
         <v>3855</v>
       </c>
       <c r="B1456" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1456" s="4">
         <v>1</v>
@@ -15399,7 +15399,7 @@
         <v>3858</v>
       </c>
       <c r="B1459" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1459" s="4">
         <v>1</v>
@@ -15426,7 +15426,7 @@
         <v>3861</v>
       </c>
       <c r="B1462" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1462" s="4">
         <v>3</v>
@@ -15437,7 +15437,7 @@
         <v>3862</v>
       </c>
       <c r="B1463" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1463" s="4">
         <v>1</v>
@@ -15464,7 +15464,7 @@
         <v>3865</v>
       </c>
       <c r="B1466" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1466" s="4">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>3868</v>
       </c>
       <c r="B1469" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1469" s="4">
         <v>1</v>
@@ -15518,7 +15518,7 @@
         <v>3871</v>
       </c>
       <c r="B1472" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1472" s="4">
         <v>1</v>
@@ -15545,7 +15545,7 @@
         <v>3874</v>
       </c>
       <c r="B1475" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C1475" s="4">
         <v>1</v>
@@ -15572,7 +15572,7 @@
         <v>3877</v>
       </c>
       <c r="B1478" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1478" s="4">
         <v>1</v>
@@ -15599,7 +15599,7 @@
         <v>3880</v>
       </c>
       <c r="B1481" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1481" s="4">
         <v>1</v>
@@ -15626,13 +15626,13 @@
         <v>3883</v>
       </c>
       <c r="B1484" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1484" s="4">
         <v>1</v>
       </c>
       <c r="D1484" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
@@ -15656,7 +15656,7 @@
         <v>3886</v>
       </c>
       <c r="B1487" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1487" s="4">
         <v>1</v>
@@ -15683,7 +15683,7 @@
         <v>3889</v>
       </c>
       <c r="B1490" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1490" s="4">
         <v>1</v>
@@ -15710,7 +15710,7 @@
         <v>3892</v>
       </c>
       <c r="B1493" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1493" s="4">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>3895</v>
       </c>
       <c r="B1496" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1496" s="4">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>3898</v>
       </c>
       <c r="B1499" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1499" s="4">
         <v>1</v>
@@ -15791,7 +15791,7 @@
         <v>3901</v>
       </c>
       <c r="B1502" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1502" s="4">
         <v>1</v>
@@ -15818,7 +15818,7 @@
         <v>3904</v>
       </c>
       <c r="B1505" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1505" s="4">
         <v>1</v>
@@ -15845,7 +15845,7 @@
         <v>3907</v>
       </c>
       <c r="B1508" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1508" s="4">
         <v>1</v>
@@ -15872,7 +15872,7 @@
         <v>3910</v>
       </c>
       <c r="B1511" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1511" s="4">
         <v>1</v>
@@ -15899,7 +15899,7 @@
         <v>3913</v>
       </c>
       <c r="B1514" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1514" s="4">
         <v>1</v>
@@ -15926,7 +15926,7 @@
         <v>3916</v>
       </c>
       <c r="B1517" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C1517" s="4">
         <v>1</v>
@@ -15953,7 +15953,7 @@
         <v>3919</v>
       </c>
       <c r="B1520" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1520" s="4">
         <v>1</v>
@@ -15969,16 +15969,16 @@
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1522" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1522" s="4">
         <v>3</v>
       </c>
       <c r="D1522" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
@@ -15986,7 +15986,7 @@
         <v>3921</v>
       </c>
       <c r="B1523" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1523" s="4">
         <v>1</v>
@@ -16013,7 +16013,7 @@
         <v>3924</v>
       </c>
       <c r="B1526" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1526" s="4">
         <v>1</v>
@@ -16040,7 +16040,7 @@
         <v>3927</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1529" s="4">
         <v>1</v>
@@ -16067,7 +16067,7 @@
         <v>3930</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1532" s="4">
         <v>1</v>
@@ -16094,7 +16094,7 @@
         <v>3933</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1535" s="4">
         <v>1</v>
@@ -16121,7 +16121,7 @@
         <v>3936</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1538" s="4">
         <v>1</v>
@@ -16148,7 +16148,7 @@
         <v>3939</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1541" s="4">
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>3942</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1544" s="4">
         <v>1</v>
@@ -16202,7 +16202,7 @@
         <v>3945</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1547" s="4">
         <v>1</v>
@@ -16229,7 +16229,7 @@
         <v>3948</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1550" s="4">
         <v>1</v>
@@ -16256,7 +16256,7 @@
         <v>3951</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1553" s="4">
         <v>1</v>
@@ -16283,7 +16283,7 @@
         <v>3954</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1556" s="4">
         <v>1</v>
@@ -16310,7 +16310,7 @@
         <v>3957</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1559" s="4">
         <v>1</v>
@@ -16337,7 +16337,7 @@
         <v>3960</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1562" s="4">
         <v>1</v>
@@ -16364,7 +16364,7 @@
         <v>3963</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C1565" s="4">
         <v>1</v>
@@ -16391,7 +16391,7 @@
         <v>3966</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1568" s="4">
         <v>1</v>
@@ -16418,7 +16418,7 @@
         <v>3969</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C1571" s="4">
         <v>1</v>
@@ -16445,7 +16445,7 @@
         <v>3972</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1574" s="4">
         <v>1</v>
@@ -16472,7 +16472,7 @@
         <v>3975</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1577" s="4">
         <v>1</v>
@@ -16499,7 +16499,7 @@
         <v>3978</v>
       </c>
       <c r="B1580" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C1580" s="4">
         <v>1</v>
@@ -16526,7 +16526,7 @@
         <v>3981</v>
       </c>
       <c r="B1583" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1583" s="4">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>3984</v>
       </c>
       <c r="B1586" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1586" s="4">
         <v>1</v>
@@ -16580,7 +16580,7 @@
         <v>3987</v>
       </c>
       <c r="B1589" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1589" s="4">
         <v>1</v>
@@ -16607,7 +16607,7 @@
         <v>3990</v>
       </c>
       <c r="B1592" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C1592" s="4">
         <v>1</v>
@@ -16634,7 +16634,7 @@
         <v>3993</v>
       </c>
       <c r="B1595" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C1595" s="4">
         <v>1</v>
@@ -16661,7 +16661,7 @@
         <v>3996</v>
       </c>
       <c r="B1598" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C1598" s="4">
         <v>1</v>
@@ -16688,7 +16688,7 @@
         <v>3999</v>
       </c>
       <c r="B1601" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1601" s="4">
         <v>1</v>
@@ -16715,7 +16715,7 @@
         <v>4002</v>
       </c>
       <c r="B1604" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1604" s="4">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>4005</v>
       </c>
       <c r="B1607" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1607" s="4">
         <v>1</v>
@@ -16769,7 +16769,7 @@
         <v>4008</v>
       </c>
       <c r="B1610" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1610" s="4">
         <v>1</v>
@@ -16796,7 +16796,7 @@
         <v>4011</v>
       </c>
       <c r="B1613" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1613" s="4">
         <v>1</v>
@@ -16823,7 +16823,7 @@
         <v>4014</v>
       </c>
       <c r="B1616" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1616" s="4">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>4017</v>
       </c>
       <c r="B1619" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1619" s="4">
         <v>1</v>
@@ -16877,7 +16877,7 @@
         <v>4020</v>
       </c>
       <c r="B1622" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1622" s="4">
         <v>1</v>
@@ -16904,7 +16904,7 @@
         <v>4023</v>
       </c>
       <c r="B1625" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1625" s="4">
         <v>1</v>
@@ -16931,7 +16931,7 @@
         <v>4026</v>
       </c>
       <c r="B1628" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C1628" s="4">
         <v>1</v>
@@ -16958,7 +16958,7 @@
         <v>4029</v>
       </c>
       <c r="B1631" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1631" s="4">
         <v>1</v>
@@ -16985,7 +16985,7 @@
         <v>4032</v>
       </c>
       <c r="B1634" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1634" s="4">
         <v>1</v>
@@ -17012,7 +17012,7 @@
         <v>4035</v>
       </c>
       <c r="B1637" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1637" s="4">
         <v>1</v>
@@ -17039,7 +17039,7 @@
         <v>4038</v>
       </c>
       <c r="B1640" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1640" s="4">
         <v>1</v>
@@ -17066,7 +17066,7 @@
         <v>4041</v>
       </c>
       <c r="B1643" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1643" s="4">
         <v>1</v>
@@ -17093,7 +17093,7 @@
         <v>4044</v>
       </c>
       <c r="B1646" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1646" s="4">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>4047</v>
       </c>
       <c r="B1649" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1649" s="4">
         <v>1</v>
@@ -17147,7 +17147,7 @@
         <v>4050</v>
       </c>
       <c r="B1652" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1652" s="4">
         <v>1</v>
@@ -17174,7 +17174,7 @@
         <v>4053</v>
       </c>
       <c r="B1655" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1655" s="4">
         <v>1</v>
@@ -17201,7 +17201,7 @@
         <v>4056</v>
       </c>
       <c r="B1658" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1658" s="4">
         <v>1</v>
@@ -17228,7 +17228,7 @@
         <v>4059</v>
       </c>
       <c r="B1661" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1661" s="4">
         <v>1</v>
@@ -17255,7 +17255,7 @@
         <v>4062</v>
       </c>
       <c r="B1664" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1664" s="4">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>4065</v>
       </c>
       <c r="B1667" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1667" s="4">
         <v>1</v>
@@ -17317,7 +17317,7 @@
         <v>4069</v>
       </c>
       <c r="B1671" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1671" s="4">
         <v>1</v>
@@ -17344,7 +17344,7 @@
         <v>4072</v>
       </c>
       <c r="B1674" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1674" s="4">
         <v>1</v>
@@ -17371,7 +17371,7 @@
         <v>4075</v>
       </c>
       <c r="B1677" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1677" s="4">
         <v>1</v>
@@ -17398,7 +17398,7 @@
         <v>4078</v>
       </c>
       <c r="B1680" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1680" s="4">
         <v>1</v>
@@ -17425,7 +17425,7 @@
         <v>4081</v>
       </c>
       <c r="B1683" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1683" s="4">
         <v>1</v>
@@ -17452,7 +17452,7 @@
         <v>4084</v>
       </c>
       <c r="B1686" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1686" s="4">
         <v>1</v>
@@ -17479,7 +17479,7 @@
         <v>4087</v>
       </c>
       <c r="B1689" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1689" s="4">
         <v>1</v>
@@ -17506,10 +17506,10 @@
         <v>4090</v>
       </c>
       <c r="B1692" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1692" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
@@ -17517,7 +17517,7 @@
         <v>4091</v>
       </c>
       <c r="B1693" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1693" s="4">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>4094</v>
       </c>
       <c r="B1696" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1696" s="4">
         <v>1</v>
@@ -17571,7 +17571,7 @@
         <v>4097</v>
       </c>
       <c r="B1699" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1699" s="4">
         <v>1</v>
@@ -17598,7 +17598,7 @@
         <v>4100</v>
       </c>
       <c r="B1702" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1702" s="4">
         <v>1</v>
@@ -17625,7 +17625,7 @@
         <v>4103</v>
       </c>
       <c r="B1705" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1705" s="4">
         <v>1</v>
@@ -17652,7 +17652,7 @@
         <v>4106</v>
       </c>
       <c r="B1708" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1708" s="4">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>4109</v>
       </c>
       <c r="B1711" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1711" s="4">
         <v>1</v>
@@ -17706,7 +17706,7 @@
         <v>4112</v>
       </c>
       <c r="B1714" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1714" s="4">
         <v>1</v>
@@ -17733,7 +17733,7 @@
         <v>4115</v>
       </c>
       <c r="B1717" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1717" s="4">
         <v>1</v>
@@ -17760,7 +17760,7 @@
         <v>4118</v>
       </c>
       <c r="B1720" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1720" s="4">
         <v>1</v>
@@ -17787,7 +17787,7 @@
         <v>4121</v>
       </c>
       <c r="B1723" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1723" s="4">
         <v>1</v>
@@ -17814,7 +17814,7 @@
         <v>4124</v>
       </c>
       <c r="B1726" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1726" s="4">
         <v>1</v>
@@ -17841,7 +17841,7 @@
         <v>4127</v>
       </c>
       <c r="B1729" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1729" s="4">
         <v>1</v>
@@ -17868,7 +17868,7 @@
         <v>4130</v>
       </c>
       <c r="B1732" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1732" s="4">
         <v>1</v>
@@ -17895,7 +17895,7 @@
         <v>4133</v>
       </c>
       <c r="B1735" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1735" s="4">
         <v>1</v>
@@ -17922,7 +17922,7 @@
         <v>4136</v>
       </c>
       <c r="B1738" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1738" s="4">
         <v>1</v>
@@ -17949,7 +17949,7 @@
         <v>4139</v>
       </c>
       <c r="B1741" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1741" s="4">
         <v>1</v>
@@ -17976,7 +17976,7 @@
         <v>4142</v>
       </c>
       <c r="B1744" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1744" s="4">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>4145</v>
       </c>
       <c r="B1747" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1747" s="4">
         <v>1</v>
@@ -18030,7 +18030,7 @@
         <v>4148</v>
       </c>
       <c r="B1750" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1750" s="4">
         <v>1</v>
@@ -18057,7 +18057,7 @@
         <v>4151</v>
       </c>
       <c r="B1753" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1753" s="4">
         <v>1</v>
@@ -18073,16 +18073,16 @@
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1755" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1755" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1755" s="6">
         <v>3</v>
       </c>
       <c r="D1755" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
@@ -18090,7 +18090,7 @@
         <v>4153</v>
       </c>
       <c r="B1756" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1756" s="4">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         <v>4156</v>
       </c>
       <c r="B1759" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1759" s="4">
         <v>1</v>
@@ -18144,7 +18144,7 @@
         <v>4159</v>
       </c>
       <c r="B1762" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1762" s="4">
         <v>1</v>
@@ -18171,7 +18171,7 @@
         <v>4162</v>
       </c>
       <c r="B1765" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1765" s="4">
         <v>1</v>
@@ -18198,7 +18198,7 @@
         <v>4165</v>
       </c>
       <c r="B1768" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1768" s="4">
         <v>1</v>
@@ -18225,7 +18225,7 @@
         <v>4168</v>
       </c>
       <c r="B1771" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1771" s="4">
         <v>1</v>
@@ -18252,7 +18252,7 @@
         <v>4171</v>
       </c>
       <c r="B1774" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1774" s="4">
         <v>1</v>
@@ -18279,7 +18279,7 @@
         <v>4174</v>
       </c>
       <c r="B1777" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1777" s="4">
         <v>1</v>
@@ -18306,7 +18306,7 @@
         <v>4177</v>
       </c>
       <c r="B1780" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1780" s="4">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         <v>4180</v>
       </c>
       <c r="B1783" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1783" s="4">
         <v>1</v>
@@ -18360,7 +18360,7 @@
         <v>4183</v>
       </c>
       <c r="B1786" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1786" s="4">
         <v>1</v>
@@ -18387,7 +18387,7 @@
         <v>4186</v>
       </c>
       <c r="B1789" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1789" s="4">
         <v>1</v>
@@ -18414,7 +18414,7 @@
         <v>4189</v>
       </c>
       <c r="B1792" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1792" s="4">
         <v>1</v>
@@ -18441,7 +18441,7 @@
         <v>4192</v>
       </c>
       <c r="B1795" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1795" s="4">
         <v>1</v>
@@ -18468,7 +18468,7 @@
         <v>4195</v>
       </c>
       <c r="B1798" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1798" s="4">
         <v>1</v>
@@ -18495,7 +18495,7 @@
         <v>4198</v>
       </c>
       <c r="B1801" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1801" s="4">
         <v>1</v>
@@ -18522,7 +18522,7 @@
         <v>4201</v>
       </c>
       <c r="B1804" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1804" s="4">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         <v>4204</v>
       </c>
       <c r="B1807" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1807" s="4">
         <v>1</v>
@@ -18576,7 +18576,7 @@
         <v>4207</v>
       </c>
       <c r="B1810" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1810" s="4">
         <v>1</v>
@@ -18603,7 +18603,7 @@
         <v>4210</v>
       </c>
       <c r="B1813" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1813" s="4">
         <v>1</v>
@@ -18630,7 +18630,7 @@
         <v>4213</v>
       </c>
       <c r="B1816" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1816" s="4">
         <v>1</v>
@@ -18657,7 +18657,7 @@
         <v>4216</v>
       </c>
       <c r="B1819" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1819" s="4">
         <v>1</v>
@@ -18684,7 +18684,7 @@
         <v>4219</v>
       </c>
       <c r="B1822" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1822" s="4">
         <v>1</v>
@@ -18711,7 +18711,7 @@
         <v>4222</v>
       </c>
       <c r="B1825" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1825" s="4">
         <v>1</v>
@@ -18738,7 +18738,7 @@
         <v>4225</v>
       </c>
       <c r="B1828" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1828" s="4">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         <v>4228</v>
       </c>
       <c r="B1831" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1831" s="4">
         <v>1</v>
@@ -18792,7 +18792,7 @@
         <v>4231</v>
       </c>
       <c r="B1834" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1834" s="4">
         <v>1</v>
@@ -18819,7 +18819,7 @@
         <v>4234</v>
       </c>
       <c r="B1837" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1837" s="4">
         <v>1</v>
@@ -18846,7 +18846,7 @@
         <v>4237</v>
       </c>
       <c r="B1840" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1840" s="4">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>4240</v>
       </c>
       <c r="B1843" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1843" s="4">
         <v>1</v>
@@ -18900,7 +18900,7 @@
         <v>4243</v>
       </c>
       <c r="B1846" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1846" s="4">
         <v>1</v>
@@ -18927,7 +18927,7 @@
         <v>4246</v>
       </c>
       <c r="B1849" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1849" s="4">
         <v>1</v>
@@ -18954,7 +18954,7 @@
         <v>4249</v>
       </c>
       <c r="B1852" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1852" s="4">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         <v>4252</v>
       </c>
       <c r="B1855" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1855" s="4">
         <v>1</v>
@@ -19008,7 +19008,7 @@
         <v>4255</v>
       </c>
       <c r="B1858" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1858" s="4">
         <v>1</v>
@@ -19035,7 +19035,7 @@
         <v>4258</v>
       </c>
       <c r="B1861" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1861" s="4">
         <v>1</v>
@@ -19062,7 +19062,7 @@
         <v>4261</v>
       </c>
       <c r="B1864" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1864" s="4">
         <v>1</v>
@@ -19089,7 +19089,7 @@
         <v>4264</v>
       </c>
       <c r="B1867" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1867" s="4">
         <v>1</v>
@@ -19116,7 +19116,7 @@
         <v>4267</v>
       </c>
       <c r="B1870" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1870" s="4">
         <v>1</v>
@@ -19143,7 +19143,7 @@
         <v>4270</v>
       </c>
       <c r="B1873" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1873" s="4">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>4273</v>
       </c>
       <c r="B1876" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1876" s="4">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         <v>4276</v>
       </c>
       <c r="B1879" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1879" s="4">
         <v>1</v>
@@ -19224,7 +19224,7 @@
         <v>4279</v>
       </c>
       <c r="B1882" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1882" s="4">
         <v>1</v>
@@ -19251,7 +19251,7 @@
         <v>4282</v>
       </c>
       <c r="B1885" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1885" s="4">
         <v>1</v>
@@ -19278,7 +19278,7 @@
         <v>4285</v>
       </c>
       <c r="B1888" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1888" s="4">
         <v>1</v>
@@ -19305,7 +19305,7 @@
         <v>4288</v>
       </c>
       <c r="B1891" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1891" s="4">
         <v>1</v>
@@ -19332,7 +19332,7 @@
         <v>4291</v>
       </c>
       <c r="B1894" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1894" s="4">
         <v>1</v>
@@ -19359,7 +19359,7 @@
         <v>4294</v>
       </c>
       <c r="B1897" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1897" s="4">
         <v>1</v>
@@ -19386,7 +19386,7 @@
         <v>4297</v>
       </c>
       <c r="B1900" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1900" s="4">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>4300</v>
       </c>
       <c r="B1903" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1903" s="4">
         <v>1</v>
@@ -19440,7 +19440,7 @@
         <v>4303</v>
       </c>
       <c r="B1906" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1906" s="4">
         <v>1</v>
@@ -19467,7 +19467,7 @@
         <v>4306</v>
       </c>
       <c r="B1909" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1909" s="4">
         <v>1</v>
@@ -19494,7 +19494,7 @@
         <v>4309</v>
       </c>
       <c r="B1912" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1912" s="4">
         <v>1</v>
@@ -19521,7 +19521,7 @@
         <v>4312</v>
       </c>
       <c r="B1915" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1915" s="4">
         <v>1</v>
@@ -19548,7 +19548,7 @@
         <v>4315</v>
       </c>
       <c r="B1918" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1918" s="4">
         <v>1</v>
@@ -19575,7 +19575,7 @@
         <v>4318</v>
       </c>
       <c r="B1921" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1921" s="4">
         <v>1</v>
@@ -19602,7 +19602,7 @@
         <v>4321</v>
       </c>
       <c r="B1924" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1924" s="4">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         <v>4324</v>
       </c>
       <c r="B1927" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1927" s="4">
         <v>1</v>
@@ -19656,7 +19656,7 @@
         <v>4327</v>
       </c>
       <c r="B1930" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1930" s="4">
         <v>1</v>
@@ -19683,7 +19683,7 @@
         <v>4330</v>
       </c>
       <c r="B1933" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1933" s="4">
         <v>1</v>
@@ -19710,7 +19710,7 @@
         <v>4333</v>
       </c>
       <c r="B1936" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1936" s="4">
         <v>1</v>
@@ -19737,7 +19737,7 @@
         <v>4336</v>
       </c>
       <c r="B1939" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1939" s="4">
         <v>1</v>
@@ -19764,7 +19764,7 @@
         <v>4339</v>
       </c>
       <c r="B1942" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1942" s="4">
         <v>1</v>
@@ -19791,7 +19791,7 @@
         <v>4342</v>
       </c>
       <c r="B1945" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1945" s="4">
         <v>1</v>
@@ -19818,7 +19818,7 @@
         <v>4345</v>
       </c>
       <c r="B1948" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1948" s="4">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         <v>4348</v>
       </c>
       <c r="B1951" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1951" s="4">
         <v>1</v>
@@ -19872,7 +19872,7 @@
         <v>4351</v>
       </c>
       <c r="B1954" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1954" s="4">
         <v>1</v>
@@ -19899,7 +19899,7 @@
         <v>4354</v>
       </c>
       <c r="B1957" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1957" s="4">
         <v>1</v>
@@ -19926,7 +19926,7 @@
         <v>4357</v>
       </c>
       <c r="B1960" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1960" s="4">
         <v>1</v>
@@ -19953,7 +19953,7 @@
         <v>4360</v>
       </c>
       <c r="B1963" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1963" s="4">
         <v>1</v>
@@ -19980,7 +19980,7 @@
         <v>4363</v>
       </c>
       <c r="B1966" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1966" s="4">
         <v>1</v>
@@ -20007,7 +20007,7 @@
         <v>4366</v>
       </c>
       <c r="B1969" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1969" s="4">
         <v>1</v>
@@ -20034,7 +20034,7 @@
         <v>4369</v>
       </c>
       <c r="B1972" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1972" s="4">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         <v>4372</v>
       </c>
       <c r="B1975" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1975" s="4">
         <v>1</v>
@@ -20088,7 +20088,7 @@
         <v>4375</v>
       </c>
       <c r="B1978" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1978" s="4">
         <v>1</v>
@@ -20115,7 +20115,7 @@
         <v>4378</v>
       </c>
       <c r="B1981" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1981" s="4">
         <v>1</v>
@@ -20142,7 +20142,7 @@
         <v>4381</v>
       </c>
       <c r="B1984" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1984" s="4">
         <v>1</v>
@@ -20169,7 +20169,7 @@
         <v>4384</v>
       </c>
       <c r="B1987" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1987" s="4">
         <v>1</v>
@@ -20196,7 +20196,7 @@
         <v>4387</v>
       </c>
       <c r="B1990" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1990" s="4">
         <v>1</v>
@@ -20223,7 +20223,7 @@
         <v>4390</v>
       </c>
       <c r="B1993" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1993" s="4">
         <v>1</v>
@@ -20250,7 +20250,7 @@
         <v>4393</v>
       </c>
       <c r="B1996" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1996" s="4">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         <v>4396</v>
       </c>
       <c r="B1999" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1999" s="4">
         <v>1</v>
@@ -20304,7 +20304,7 @@
         <v>4399</v>
       </c>
       <c r="B2002" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2002" s="4">
         <v>1</v>
@@ -20331,7 +20331,7 @@
         <v>4402</v>
       </c>
       <c r="B2005" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2005" s="4">
         <v>1</v>
@@ -20358,7 +20358,7 @@
         <v>4405</v>
       </c>
       <c r="B2008" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2008" s="4">
         <v>1</v>
@@ -20385,7 +20385,7 @@
         <v>4408</v>
       </c>
       <c r="B2011" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2011" s="4">
         <v>1</v>
@@ -20412,7 +20412,7 @@
         <v>4411</v>
       </c>
       <c r="B2014" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2014" s="4">
         <v>1</v>
@@ -20439,7 +20439,7 @@
         <v>4414</v>
       </c>
       <c r="B2017" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2017" s="4">
         <v>1</v>
@@ -20466,7 +20466,7 @@
         <v>4417</v>
       </c>
       <c r="B2020" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2020" s="4">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         <v>4420</v>
       </c>
       <c r="B2023" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2023" s="4">
         <v>1</v>
@@ -20520,7 +20520,7 @@
         <v>4423</v>
       </c>
       <c r="B2026" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2026" s="4">
         <v>1</v>
@@ -20547,7 +20547,7 @@
         <v>4426</v>
       </c>
       <c r="B2029" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2029" s="4">
         <v>1</v>
@@ -20574,7 +20574,7 @@
         <v>4429</v>
       </c>
       <c r="B2032" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2032" s="4">
         <v>1</v>
@@ -20601,7 +20601,7 @@
         <v>4432</v>
       </c>
       <c r="B2035" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2035" s="4">
         <v>1</v>
@@ -20628,7 +20628,7 @@
         <v>4435</v>
       </c>
       <c r="B2038" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2038" s="4">
         <v>1</v>
@@ -20642,7 +20642,7 @@
         <v>2</v>
       </c>
       <c r="D2039" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
@@ -20650,7 +20650,7 @@
         <v>4437</v>
       </c>
       <c r="B2040" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2040" s="4">
         <v>1</v>
@@ -20677,7 +20677,7 @@
         <v>4440</v>
       </c>
       <c r="B2043" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2043" s="4">
         <v>1</v>
@@ -20704,7 +20704,7 @@
         <v>4443</v>
       </c>
       <c r="B2046" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2046" s="4">
         <v>1</v>
@@ -20731,7 +20731,7 @@
         <v>4446</v>
       </c>
       <c r="B2049" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2049" s="4">
         <v>1</v>
@@ -20745,7 +20745,7 @@
         <v>2</v>
       </c>
       <c r="D2050" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
@@ -20753,7 +20753,7 @@
         <v>4448</v>
       </c>
       <c r="B2051" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2051" s="4">
         <v>1</v>
@@ -20780,7 +20780,7 @@
         <v>4451</v>
       </c>
       <c r="B2054" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2054" s="4">
         <v>1</v>
@@ -20807,7 +20807,7 @@
         <v>4454</v>
       </c>
       <c r="B2057" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2057" s="4">
         <v>1</v>
@@ -20834,7 +20834,7 @@
         <v>4457</v>
       </c>
       <c r="B2060" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2060" s="4">
         <v>1</v>
@@ -20861,7 +20861,7 @@
         <v>4460</v>
       </c>
       <c r="B2063" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2063" s="4">
         <v>1</v>
@@ -20888,7 +20888,7 @@
         <v>4463</v>
       </c>
       <c r="B2066" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2066" s="4">
         <v>1</v>
@@ -20915,7 +20915,7 @@
         <v>4466</v>
       </c>
       <c r="B2069" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2069" s="4">
         <v>1</v>
@@ -20942,7 +20942,7 @@
         <v>4469</v>
       </c>
       <c r="B2072" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2072" s="4">
         <v>1</v>
@@ -20969,7 +20969,7 @@
         <v>4472</v>
       </c>
       <c r="B2075" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2075" s="4">
         <v>1</v>
@@ -20996,7 +20996,7 @@
         <v>4475</v>
       </c>
       <c r="B2078" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2078" s="4">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>4478</v>
       </c>
       <c r="B2081" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2081" s="4">
         <v>1</v>
@@ -21050,7 +21050,7 @@
         <v>4481</v>
       </c>
       <c r="B2084" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2084" s="4">
         <v>1</v>
@@ -21077,7 +21077,7 @@
         <v>4484</v>
       </c>
       <c r="B2087" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2087" s="4">
         <v>1</v>
@@ -21104,7 +21104,7 @@
         <v>4487</v>
       </c>
       <c r="B2090" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2090" s="4">
         <v>1</v>
@@ -21131,7 +21131,7 @@
         <v>4490</v>
       </c>
       <c r="B2093" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2093" s="4">
         <v>1</v>
@@ -21154,10 +21154,10 @@
         <v>3</v>
       </c>
       <c r="D2095" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2095" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
